--- a/results/mp/logistic/corona/confidence/168/stop-words-desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-desired-0.35/avg_0.003_scores.xlsx
@@ -40,49 +40,49 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
+    <t>stop</t>
   </si>
   <si>
     <t>negative</t>
@@ -91,124 +91,124 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>helping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8356164383561644</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8493150684931506</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9416666666666667</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9084507042253521</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L6">
-        <v>129</v>
+        <v>346</v>
       </c>
       <c r="M6">
-        <v>129</v>
+        <v>346</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7333333333333333</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8929503916449086</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L7">
-        <v>342</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>342</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7307692307692307</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8839285714285714</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7027027027027027</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8793103448275862</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6944444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8773584905660378</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="M10">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5767195767195767</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C11">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="D11">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K11">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L11">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5254237288135594</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K12">
-        <v>0.86875</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L12">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5174418604651163</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C13">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8636363636363636</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4363636363636363</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K14">
-        <v>0.8611111111111112</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4117647058823529</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K15">
-        <v>0.8604651162790697</v>
+        <v>0.86875</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3466666666666667</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K16">
-        <v>0.8536585365853658</v>
+        <v>0.8671875</v>
       </c>
       <c r="L16">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3154362416107382</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C17">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1353,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K17">
-        <v>0.8484848484848485</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1385,13 +1385,13 @@
         <v>39</v>
       </c>
       <c r="K18">
-        <v>0.8461538461538461</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1411,13 +1411,13 @@
         <v>40</v>
       </c>
       <c r="K19">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1437,13 +1437,13 @@
         <v>41</v>
       </c>
       <c r="K20">
-        <v>0.8297872340425532</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1489,13 +1489,13 @@
         <v>43</v>
       </c>
       <c r="K22">
-        <v>0.8</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1515,13 +1515,13 @@
         <v>44</v>
       </c>
       <c r="K23">
-        <v>0.78</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1541,13 +1541,13 @@
         <v>45</v>
       </c>
       <c r="K24">
-        <v>0.7708333333333334</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1567,13 +1567,13 @@
         <v>46</v>
       </c>
       <c r="K25">
-        <v>0.7619047619047619</v>
+        <v>0.76</v>
       </c>
       <c r="L25">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1619,13 +1619,13 @@
         <v>48</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.7264705882352941</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1645,13 +1645,13 @@
         <v>49</v>
       </c>
       <c r="K28">
-        <v>0.75</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1671,13 +1671,13 @@
         <v>50</v>
       </c>
       <c r="K29">
-        <v>0.7428571428571429</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1697,13 +1697,13 @@
         <v>51</v>
       </c>
       <c r="K30">
-        <v>0.7294117647058823</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L30">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1723,13 +1723,13 @@
         <v>52</v>
       </c>
       <c r="K31">
-        <v>0.7112970711297071</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L31">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="M31">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1749,13 +1749,13 @@
         <v>53</v>
       </c>
       <c r="K32">
-        <v>0.7074829931972789</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1764,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1775,13 +1775,13 @@
         <v>54</v>
       </c>
       <c r="K33">
-        <v>0.7021276595744681</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L33">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1801,13 +1801,13 @@
         <v>55</v>
       </c>
       <c r="K34">
-        <v>0.6666666666666666</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1827,13 +1827,13 @@
         <v>56</v>
       </c>
       <c r="K35">
-        <v>0.6629213483146067</v>
+        <v>0.65</v>
       </c>
       <c r="L35">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1853,13 +1853,13 @@
         <v>57</v>
       </c>
       <c r="K36">
-        <v>0.6615384615384615</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1879,13 +1879,13 @@
         <v>58</v>
       </c>
       <c r="K37">
-        <v>0.5714285714285714</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1905,13 +1905,13 @@
         <v>59</v>
       </c>
       <c r="K38">
-        <v>0.5714285714285714</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L38">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1931,13 +1931,13 @@
         <v>60</v>
       </c>
       <c r="K39">
-        <v>0.5098039215686274</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1957,13 +1957,13 @@
         <v>61</v>
       </c>
       <c r="K40">
-        <v>0.4383561643835616</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L40">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1983,13 +1983,13 @@
         <v>62</v>
       </c>
       <c r="K41">
-        <v>0.3559322033898305</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2009,13 +2009,13 @@
         <v>63</v>
       </c>
       <c r="K42">
-        <v>0.3333333333333333</v>
+        <v>0.328125</v>
       </c>
       <c r="L42">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2035,7 +2035,7 @@
         <v>64</v>
       </c>
       <c r="K43">
-        <v>0.3333333333333333</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L43">
         <v>19</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
